--- a/Reslut.xlsx
+++ b/Reslut.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\CoSkel_Matlab_Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FD2E39-F82F-48CD-B745-76C13F2BB728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1497356-D23F-4E42-B0B8-631FF0C9DE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{16407BFB-A574-4FE5-B1A6-C913EA9ED7CF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{16407BFB-A574-4FE5-B1A6-C913EA9ED7CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="V53-54" sheetId="2" r:id="rId2"/>
+    <sheet name="V56" sheetId="3" r:id="rId3"/>
+    <sheet name="V57-58" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="312">
   <si>
     <t>'TransUNet-SelectiveAttention-batch4-doublechannel-class2-alpha5-epoch21.pth'</t>
   </si>
@@ -169,14 +172,853 @@
   </si>
   <si>
     <t>JS</t>
+  </si>
+  <si>
+    <t>'epoch_1.pth'</t>
+  </si>
+  <si>
+    <t>'0.27303'</t>
+  </si>
+  <si>
+    <t>'0.53208'</t>
+  </si>
+  <si>
+    <t>'0.63683'</t>
+  </si>
+  <si>
+    <t>'0.69905'</t>
+  </si>
+  <si>
+    <t>'0.74754'</t>
+  </si>
+  <si>
+    <t>'0.77153'</t>
+  </si>
+  <si>
+    <t>'0.15977'</t>
+  </si>
+  <si>
+    <t>'epoch_11.pth'</t>
+  </si>
+  <si>
+    <t>'0.27403'</t>
+  </si>
+  <si>
+    <t>'0.50803'</t>
+  </si>
+  <si>
+    <t>'0.59609'</t>
+  </si>
+  <si>
+    <t>'0.6489'</t>
+  </si>
+  <si>
+    <t>'0.69615'</t>
+  </si>
+  <si>
+    <t>'0.71689'</t>
+  </si>
+  <si>
+    <t>'0.16051'</t>
+  </si>
+  <si>
+    <t>'epoch_13.pth'</t>
+  </si>
+  <si>
+    <t>'0.28035'</t>
+  </si>
+  <si>
+    <t>'0.51156'</t>
+  </si>
+  <si>
+    <t>'0.594'</t>
+  </si>
+  <si>
+    <t>'0.64379'</t>
+  </si>
+  <si>
+    <t>'0.68904'</t>
+  </si>
+  <si>
+    <t>'0.70884'</t>
+  </si>
+  <si>
+    <t>'0.16527'</t>
+  </si>
+  <si>
+    <t>'epoch_15.pth'</t>
+  </si>
+  <si>
+    <t>'0.28063'</t>
+  </si>
+  <si>
+    <t>'0.50245'</t>
+  </si>
+  <si>
+    <t>'0.58435'</t>
+  </si>
+  <si>
+    <t>'0.63405'</t>
+  </si>
+  <si>
+    <t>'0.67558'</t>
+  </si>
+  <si>
+    <t>'0.6953'</t>
+  </si>
+  <si>
+    <t>'0.1653'</t>
+  </si>
+  <si>
+    <t>'epoch_17.pth'</t>
+  </si>
+  <si>
+    <t>'0.2791'</t>
+  </si>
+  <si>
+    <t>'0.50931'</t>
+  </si>
+  <si>
+    <t>'0.59426'</t>
+  </si>
+  <si>
+    <t>'0.64581'</t>
+  </si>
+  <si>
+    <t>'0.68923'</t>
+  </si>
+  <si>
+    <t>'0.70916'</t>
+  </si>
+  <si>
+    <t>'0.16405'</t>
+  </si>
+  <si>
+    <t>'epoch_19.pth'</t>
+  </si>
+  <si>
+    <t>'0.28245'</t>
+  </si>
+  <si>
+    <t>'0.50527'</t>
+  </si>
+  <si>
+    <t>'0.58705'</t>
+  </si>
+  <si>
+    <t>'0.63726'</t>
+  </si>
+  <si>
+    <t>'0.67915'</t>
+  </si>
+  <si>
+    <t>'0.69839'</t>
+  </si>
+  <si>
+    <t>'0.16639'</t>
+  </si>
+  <si>
+    <t>'epoch_21.pth'</t>
+  </si>
+  <si>
+    <t>'0.27336'</t>
+  </si>
+  <si>
+    <t>'0.48928'</t>
+  </si>
+  <si>
+    <t>'0.56855'</t>
+  </si>
+  <si>
+    <t>'0.61722'</t>
+  </si>
+  <si>
+    <t>'0.65845'</t>
+  </si>
+  <si>
+    <t>'0.67885'</t>
+  </si>
+  <si>
+    <t>'0.1607'</t>
+  </si>
+  <si>
+    <t>'epoch_3.pth'</t>
+  </si>
+  <si>
+    <t>'0.29207'</t>
+  </si>
+  <si>
+    <t>'0.54007'</t>
+  </si>
+  <si>
+    <t>'0.63722'</t>
+  </si>
+  <si>
+    <t>'0.69935'</t>
+  </si>
+  <si>
+    <t>'0.74789'</t>
+  </si>
+  <si>
+    <t>'0.77181'</t>
+  </si>
+  <si>
+    <t>'0.17293'</t>
+  </si>
+  <si>
+    <t>'epoch_5.pth'</t>
+  </si>
+  <si>
+    <t>'0.29452'</t>
+  </si>
+  <si>
+    <t>'0.54675'</t>
+  </si>
+  <si>
+    <t>'0.64099'</t>
+  </si>
+  <si>
+    <t>'0.69796'</t>
+  </si>
+  <si>
+    <t>'0.7441'</t>
+  </si>
+  <si>
+    <t>'0.768'</t>
+  </si>
+  <si>
+    <t>'0.1747'</t>
+  </si>
+  <si>
+    <t>'epoch_7.pth'</t>
+  </si>
+  <si>
+    <t>'0.29318'</t>
+  </si>
+  <si>
+    <t>'0.54557'</t>
+  </si>
+  <si>
+    <t>'0.63988'</t>
+  </si>
+  <si>
+    <t>'0.6943'</t>
+  </si>
+  <si>
+    <t>'0.73547'</t>
+  </si>
+  <si>
+    <t>'0.75735'</t>
+  </si>
+  <si>
+    <t>'0.17403'</t>
+  </si>
+  <si>
+    <t>'epoch_9.pth'</t>
+  </si>
+  <si>
+    <t>'0.27511'</t>
+  </si>
+  <si>
+    <t>'0.51934'</t>
+  </si>
+  <si>
+    <t>'0.6109'</t>
+  </si>
+  <si>
+    <t>'0.66668'</t>
+  </si>
+  <si>
+    <t>'0.71248'</t>
+  </si>
+  <si>
+    <t>'0.73363'</t>
+  </si>
+  <si>
+    <t>'0.16144'</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Model - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>coskel-transunet-sa-v53-54</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Model - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tnet-sa-b4-cl2-alpha5-gamma1-v56</t>
+    </r>
+  </si>
+  <si>
+    <t>'0.034024'</t>
+  </si>
+  <si>
+    <t>'0.069272'</t>
+  </si>
+  <si>
+    <t>'0.092716'</t>
+  </si>
+  <si>
+    <t>'0.11506'</t>
+  </si>
+  <si>
+    <t>'0.14103'</t>
+  </si>
+  <si>
+    <t>'0.15744'</t>
+  </si>
+  <si>
+    <t>'0.017375'</t>
+  </si>
+  <si>
+    <t>'0.19166'</t>
+  </si>
+  <si>
+    <t>'0.37251'</t>
+  </si>
+  <si>
+    <t>'0.45235'</t>
+  </si>
+  <si>
+    <t>'0.50597'</t>
+  </si>
+  <si>
+    <t>'0.55331'</t>
+  </si>
+  <si>
+    <t>'0.57737'</t>
+  </si>
+  <si>
+    <t>'0.10672'</t>
+  </si>
+  <si>
+    <t>'0.22889'</t>
+  </si>
+  <si>
+    <t>'0.45466'</t>
+  </si>
+  <si>
+    <t>'0.55107'</t>
+  </si>
+  <si>
+    <t>'0.61285'</t>
+  </si>
+  <si>
+    <t>'0.66607'</t>
+  </si>
+  <si>
+    <t>'0.69105'</t>
+  </si>
+  <si>
+    <t>'0.13027'</t>
+  </si>
+  <si>
+    <t>'0.21312'</t>
+  </si>
+  <si>
+    <t>'0.44133'</t>
+  </si>
+  <si>
+    <t>'0.54624'</t>
+  </si>
+  <si>
+    <t>'0.61731'</t>
+  </si>
+  <si>
+    <t>'0.68066'</t>
+  </si>
+  <si>
+    <t>'0.71136'</t>
+  </si>
+  <si>
+    <t>'0.11991'</t>
+  </si>
+  <si>
+    <t>'0.18767'</t>
+  </si>
+  <si>
+    <t>'0.37104'</t>
+  </si>
+  <si>
+    <t>'0.45742'</t>
+  </si>
+  <si>
+    <t>'0.51808'</t>
+  </si>
+  <si>
+    <t>'0.57172'</t>
+  </si>
+  <si>
+    <t>'0.59795'</t>
+  </si>
+  <si>
+    <t>'0.10418'</t>
+  </si>
+  <si>
+    <t>'0.25246'</t>
+  </si>
+  <si>
+    <t>'0.49667'</t>
+  </si>
+  <si>
+    <t>'0.60232'</t>
+  </si>
+  <si>
+    <t>'0.66808'</t>
+  </si>
+  <si>
+    <t>'0.72187'</t>
+  </si>
+  <si>
+    <t>'0.74566'</t>
+  </si>
+  <si>
+    <t>'0.14529'</t>
+  </si>
+  <si>
+    <t>'0.0041956'</t>
+  </si>
+  <si>
+    <t>'0.0079944'</t>
+  </si>
+  <si>
+    <t>'0.010132'</t>
+  </si>
+  <si>
+    <t>'0.012157'</t>
+  </si>
+  <si>
+    <t>'0.014438'</t>
+  </si>
+  <si>
+    <t>'0.016298'</t>
+  </si>
+  <si>
+    <t>'0.0026528'</t>
+  </si>
+  <si>
+    <t>'0.19249'</t>
+  </si>
+  <si>
+    <t>'0.37888'</t>
+  </si>
+  <si>
+    <t>'0.46762'</t>
+  </si>
+  <si>
+    <t>'0.53088'</t>
+  </si>
+  <si>
+    <t>'0.58776'</t>
+  </si>
+  <si>
+    <t>'0.61585'</t>
+  </si>
+  <si>
+    <t>'0.10711'</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Model - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tnet-sa-b4-alph5-cl2-gamma0-2-v57-58</t>
+    </r>
+  </si>
+  <si>
+    <t>'0.26788'</t>
+  </si>
+  <si>
+    <t>'0.51971'</t>
+  </si>
+  <si>
+    <t>'0.62361'</t>
+  </si>
+  <si>
+    <t>'0.68939'</t>
+  </si>
+  <si>
+    <t>'0.74138'</t>
+  </si>
+  <si>
+    <t>'0.76438'</t>
+  </si>
+  <si>
+    <t>'0.15581'</t>
+  </si>
+  <si>
+    <t>'0.26187'</t>
+  </si>
+  <si>
+    <t>'0.50516'</t>
+  </si>
+  <si>
+    <t>'0.60878'</t>
+  </si>
+  <si>
+    <t>'0.67227'</t>
+  </si>
+  <si>
+    <t>'0.72413'</t>
+  </si>
+  <si>
+    <t>'0.74549'</t>
+  </si>
+  <si>
+    <t>'0.15172'</t>
+  </si>
+  <si>
+    <t>'0.25603'</t>
+  </si>
+  <si>
+    <t>'0.49841'</t>
+  </si>
+  <si>
+    <t>'0.59959'</t>
+  </si>
+  <si>
+    <t>'0.663'</t>
+  </si>
+  <si>
+    <t>'0.71565'</t>
+  </si>
+  <si>
+    <t>'0.73862'</t>
+  </si>
+  <si>
+    <t>'0.14787'</t>
+  </si>
+  <si>
+    <t>'0.27665'</t>
+  </si>
+  <si>
+    <t>'0.52955'</t>
+  </si>
+  <si>
+    <t>'0.6336'</t>
+  </si>
+  <si>
+    <t>'0.69827'</t>
+  </si>
+  <si>
+    <t>'0.74812'</t>
+  </si>
+  <si>
+    <t>'0.77119'</t>
+  </si>
+  <si>
+    <t>'0.16207'</t>
+  </si>
+  <si>
+    <t>'0.18832'</t>
+  </si>
+  <si>
+    <t>'0.34454'</t>
+  </si>
+  <si>
+    <t>'0.41198'</t>
+  </si>
+  <si>
+    <t>'0.45519'</t>
+  </si>
+  <si>
+    <t>'0.49268'</t>
+  </si>
+  <si>
+    <t>'0.5124'</t>
+  </si>
+  <si>
+    <t>'0.10494'</t>
+  </si>
+  <si>
+    <t>'0.24549'</t>
+  </si>
+  <si>
+    <t>'0.481'</t>
+  </si>
+  <si>
+    <t>'0.58348'</t>
+  </si>
+  <si>
+    <t>'0.64786'</t>
+  </si>
+  <si>
+    <t>'0.70069'</t>
+  </si>
+  <si>
+    <t>'0.72405'</t>
+  </si>
+  <si>
+    <t>'0.14119'</t>
+  </si>
+  <si>
+    <t>'0.028302'</t>
+  </si>
+  <si>
+    <t>'0.049971'</t>
+  </si>
+  <si>
+    <t>'0.061487'</t>
+  </si>
+  <si>
+    <t>'0.071937'</t>
+  </si>
+  <si>
+    <t>'0.084758'</t>
+  </si>
+  <si>
+    <t>'0.092499'</t>
+  </si>
+  <si>
+    <t>'0.014811'</t>
+  </si>
+  <si>
+    <t>'epoch_23.pth'</t>
+  </si>
+  <si>
+    <t>'0.22061'</t>
+  </si>
+  <si>
+    <t>'0.4018'</t>
+  </si>
+  <si>
+    <t>'0.47538'</t>
+  </si>
+  <si>
+    <t>'0.52191'</t>
+  </si>
+  <si>
+    <t>'0.56088'</t>
+  </si>
+  <si>
+    <t>'0.57897'</t>
+  </si>
+  <si>
+    <t>'0.12507'</t>
+  </si>
+  <si>
+    <t>'epoch_25.pth'</t>
+  </si>
+  <si>
+    <t>'0.25149'</t>
+  </si>
+  <si>
+    <t>'0.47075'</t>
+  </si>
+  <si>
+    <t>'0.56058'</t>
+  </si>
+  <si>
+    <t>'0.61584'</t>
+  </si>
+  <si>
+    <t>'0.66139'</t>
+  </si>
+  <si>
+    <t>'0.68156'</t>
+  </si>
+  <si>
+    <t>'0.14483'</t>
+  </si>
+  <si>
+    <t>'epoch_27.pth'</t>
+  </si>
+  <si>
+    <t>'0.27088'</t>
+  </si>
+  <si>
+    <t>'0.51582'</t>
+  </si>
+  <si>
+    <t>'0.6161'</t>
+  </si>
+  <si>
+    <t>'0.67993'</t>
+  </si>
+  <si>
+    <t>'0.73214'</t>
+  </si>
+  <si>
+    <t>'0.75458'</t>
+  </si>
+  <si>
+    <t>'0.1581'</t>
+  </si>
+  <si>
+    <t>'epoch_29.pth'</t>
+  </si>
+  <si>
+    <t>'0.28655'</t>
+  </si>
+  <si>
+    <t>'0.54904'</t>
+  </si>
+  <si>
+    <t>'0.65072'</t>
+  </si>
+  <si>
+    <t>'0.71155'</t>
+  </si>
+  <si>
+    <t>'0.75952'</t>
+  </si>
+  <si>
+    <t>'0.78098'</t>
+  </si>
+  <si>
+    <t>'0.16882'</t>
+  </si>
+  <si>
+    <t>'0.26422'</t>
+  </si>
+  <si>
+    <t>'0.50819'</t>
+  </si>
+  <si>
+    <t>'0.60533'</t>
+  </si>
+  <si>
+    <t>'0.6689'</t>
+  </si>
+  <si>
+    <t>'0.71656'</t>
+  </si>
+  <si>
+    <t>'0.73932'</t>
+  </si>
+  <si>
+    <t>'0.15384'</t>
+  </si>
+  <si>
+    <t>'epoch_31.pth'</t>
+  </si>
+  <si>
+    <t>'0.27706'</t>
+  </si>
+  <si>
+    <t>'0.53518'</t>
+  </si>
+  <si>
+    <t>'0.63965'</t>
+  </si>
+  <si>
+    <t>'0.70371'</t>
+  </si>
+  <si>
+    <t>'0.75515'</t>
+  </si>
+  <si>
+    <t>'0.77878'</t>
+  </si>
+  <si>
+    <t>'0.16275'</t>
+  </si>
+  <si>
+    <t>'0.28537'</t>
+  </si>
+  <si>
+    <t>'0.54235'</t>
+  </si>
+  <si>
+    <t>'0.64672'</t>
+  </si>
+  <si>
+    <t>'0.70715'</t>
+  </si>
+  <si>
+    <t>'0.75559'</t>
+  </si>
+  <si>
+    <t>'0.77745'</t>
+  </si>
+  <si>
+    <t>'0.16783'</t>
+  </si>
+  <si>
+    <t>'0.11839'</t>
+  </si>
+  <si>
+    <t>'0.20093'</t>
+  </si>
+  <si>
+    <t>'0.24243'</t>
+  </si>
+  <si>
+    <t>'0.27599'</t>
+  </si>
+  <si>
+    <t>'0.31276'</t>
+  </si>
+  <si>
+    <t>'0.33143'</t>
+  </si>
+  <si>
+    <t>'0.063645'</t>
+  </si>
+  <si>
+    <t>'0.2126'</t>
+  </si>
+  <si>
+    <t>'0.3905'</t>
+  </si>
+  <si>
+    <t>'0.46354'</t>
+  </si>
+  <si>
+    <t>'0.51054'</t>
+  </si>
+  <si>
+    <t>'0.55146'</t>
+  </si>
+  <si>
+    <t>'0.57201'</t>
+  </si>
+  <si>
+    <t>'0.11998'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -522,11 +1364,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CD33E9-C2EA-4B3E-AA62-03F9195A831B}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="84.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -690,4 +1532,1049 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0B8E5E-416B-0543-81F7-9C2EE2AE4813}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H16">
+    <sortCondition ref="A2:A16"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D95355-90FE-0A43-AA22-750CCB413123}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="99.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB0D0ED-1201-4956-A2E0-73916A048687}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G3" t="s">
+        <v>281</v>
+      </c>
+      <c r="H3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E4" t="s">
+        <v>294</v>
+      </c>
+      <c r="F4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G4" t="s">
+        <v>296</v>
+      </c>
+      <c r="H4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G5" t="s">
+        <v>303</v>
+      </c>
+      <c r="H5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" t="s">
+        <v>307</v>
+      </c>
+      <c r="E6" t="s">
+        <v>308</v>
+      </c>
+      <c r="F6" t="s">
+        <v>309</v>
+      </c>
+      <c r="G6" t="s">
+        <v>310</v>
+      </c>
+      <c r="H6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8" t="s">
+        <v>214</v>
+      </c>
+      <c r="H8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9" t="s">
+        <v>219</v>
+      </c>
+      <c r="F9" t="s">
+        <v>220</v>
+      </c>
+      <c r="G9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E10" t="s">
+        <v>226</v>
+      </c>
+      <c r="F10" t="s">
+        <v>227</v>
+      </c>
+      <c r="G10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F11" t="s">
+        <v>234</v>
+      </c>
+      <c r="G11" t="s">
+        <v>235</v>
+      </c>
+      <c r="H11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E12" t="s">
+        <v>240</v>
+      </c>
+      <c r="F12" t="s">
+        <v>241</v>
+      </c>
+      <c r="G12" t="s">
+        <v>242</v>
+      </c>
+      <c r="H12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>244</v>
+      </c>
+      <c r="B13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D13" t="s">
+        <v>247</v>
+      </c>
+      <c r="E13" t="s">
+        <v>248</v>
+      </c>
+      <c r="F13" t="s">
+        <v>249</v>
+      </c>
+      <c r="G13" t="s">
+        <v>250</v>
+      </c>
+      <c r="H13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>252</v>
+      </c>
+      <c r="B14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" t="s">
+        <v>255</v>
+      </c>
+      <c r="E14" t="s">
+        <v>256</v>
+      </c>
+      <c r="F14" t="s">
+        <v>257</v>
+      </c>
+      <c r="G14" t="s">
+        <v>258</v>
+      </c>
+      <c r="H14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B15" t="s">
+        <v>261</v>
+      </c>
+      <c r="C15" t="s">
+        <v>262</v>
+      </c>
+      <c r="D15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E15" t="s">
+        <v>264</v>
+      </c>
+      <c r="F15" t="s">
+        <v>265</v>
+      </c>
+      <c r="G15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>268</v>
+      </c>
+      <c r="B16" t="s">
+        <v>269</v>
+      </c>
+      <c r="C16" t="s">
+        <v>270</v>
+      </c>
+      <c r="D16" t="s">
+        <v>271</v>
+      </c>
+      <c r="E16" t="s">
+        <v>272</v>
+      </c>
+      <c r="F16" t="s">
+        <v>273</v>
+      </c>
+      <c r="G16" t="s">
+        <v>274</v>
+      </c>
+      <c r="H16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>283</v>
+      </c>
+      <c r="B17" t="s">
+        <v>284</v>
+      </c>
+      <c r="C17" t="s">
+        <v>285</v>
+      </c>
+      <c r="D17" t="s">
+        <v>286</v>
+      </c>
+      <c r="E17" t="s">
+        <v>287</v>
+      </c>
+      <c r="F17" t="s">
+        <v>288</v>
+      </c>
+      <c r="G17" t="s">
+        <v>289</v>
+      </c>
+      <c r="H17" t="s">
+        <v>290</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>